--- a/Assets/SDProject/DataTable/Xlsx/CardData.xlsx
+++ b/Assets/SDProject/DataTable/Xlsx/CardData.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SD\SDProject\Assets\SDProject\DataTable\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625DD763-8066-4C34-B8BA-3A7B8FDA388B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0E43D0-C33D-4E05-866D-D2081671B337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{DCFF4548-CAEB-432A-B1AE-A65A169FFBF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{DCFF4548-CAEB-432A-B1AE-A65A169FFBF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="80">
   <si>
     <t>Type</t>
   </si>
@@ -75,163 +74,252 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>enum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flags</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"type":"Damage","value":1}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgradable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpgradeStep</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"type":"Damage","value":3}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DescId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enabled</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rarity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tags</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpgradeRefId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Attack</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>flags</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>Move</t>
+  </si>
+  <si>
+    <t>Ally</t>
   </si>
   <si>
     <t>Front,Mid1,Mid2,Back</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Front,Mid1,Mid2,Mid3,Back</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"type":"Damage","value":1}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Upgradable</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpgradeStep</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"type":"Damage","value":3}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NameId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DescId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enabled</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CharId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rarity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Common</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tags</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpgradeRefId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardData_Common_Attack_NormalAttack_00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardData_Common_Attack_NormalAttack_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardName_Common_Attack_NormalAttack_00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardDesc_Common_Attack_NormalAttack_00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardName_Common_Attack_NormalAttack_01</t>
-  </si>
-  <si>
-    <t>CardDesc_Common_Attack_NormalAttack_01</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>Enabled</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>NameId</t>
-  </si>
-  <si>
-    <t>DescId</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>Rarity</t>
-  </si>
-  <si>
-    <t>CharId</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>flags</t>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t>Upgradable</t>
-  </si>
-  <si>
-    <t>UpgradeStep</t>
-  </si>
-  <si>
-    <t>UpgradeRefId</t>
-  </si>
-  <si>
-    <t>Tags</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>AllyAll</t>
+  </si>
+  <si>
+    <t>Base</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardData_Base_Atk_Strike_00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardData_Base_Atk_Strike_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardData_Base_Atk_HeavyStrike_00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardData_Base_Atk_HeavyStrike_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardData_Sup_Bandage_00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardData_Sup_Bandage_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardData_Move_Swap_00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardData_Move_Swap_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardData_Def_Guard_00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardData_Def_Guard_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardData_Move_Shift_00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardData_Move_Shift_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardData_Move_Regroup_00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardData_Move_Regroup_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_Base_Atk_Strike_00</t>
+  </si>
+  <si>
+    <t>CardName_Base_Atk_Strike_01</t>
+  </si>
+  <si>
+    <t>CardName_Base_Atk_HeavyStrike_00</t>
+  </si>
+  <si>
+    <t>CardName_Base_Atk_HeavyStrike_01</t>
+  </si>
+  <si>
+    <t>CardName_Def_Guard_00</t>
+  </si>
+  <si>
+    <t>CardName_Def_Guard_01</t>
+  </si>
+  <si>
+    <t>CardName_Sup_Bandage_00</t>
+  </si>
+  <si>
+    <t>CardName_Sup_Bandage_01</t>
+  </si>
+  <si>
+    <t>CardName_Move_Shift_00</t>
+  </si>
+  <si>
+    <t>CardName_Move_Shift_01</t>
+  </si>
+  <si>
+    <t>CardName_Move_Swap_00</t>
+  </si>
+  <si>
+    <t>CardName_Move_Swap_01</t>
+  </si>
+  <si>
+    <t>CardName_Move_Regroup_00</t>
+  </si>
+  <si>
+    <t>CardName_Move_Regroup_01</t>
+  </si>
+  <si>
+    <t>CardDesc_Base_Atk_Strike_00</t>
+  </si>
+  <si>
+    <t>CardDesc_Base_Atk_Strike_01</t>
+  </si>
+  <si>
+    <t>CardDesc_Base_Atk_HeavyStrike_00</t>
+  </si>
+  <si>
+    <t>CardDesc_Base_Atk_HeavyStrike_01</t>
+  </si>
+  <si>
+    <t>CardDesc_Def_Guard_00</t>
+  </si>
+  <si>
+    <t>CardDesc_Def_Guard_01</t>
+  </si>
+  <si>
+    <t>CardDesc_Sup_Bandage_00</t>
+  </si>
+  <si>
+    <t>CardDesc_Sup_Bandage_01</t>
+  </si>
+  <si>
+    <t>CardDesc_Move_Shift_00</t>
+  </si>
+  <si>
+    <t>CardDesc_Move_Shift_01</t>
+  </si>
+  <si>
+    <t>CardDesc_Move_Swap_00</t>
+  </si>
+  <si>
+    <t>CardDesc_Move_Swap_01</t>
+  </si>
+  <si>
+    <t>CardDesc_Move_Regroup_00</t>
+  </si>
+  <si>
+    <t>CardDesc_Move_Regroup_01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -301,7 +389,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -313,6 +401,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -648,20 +742,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D6A582-305E-4E47-BE5C-1015E047A912}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.375" customWidth="1"/>
     <col min="8" max="8" width="7.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.75" bestFit="1" customWidth="1"/>
@@ -671,7 +765,7 @@
     <col min="13" max="13" width="26.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="42.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="33.375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -680,25 +774,25 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>10</v>
@@ -716,16 +810,16 @@
         <v>5</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -733,7 +827,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -742,82 +836,82 @@
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="M3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N3" s="1" t="b">
         <v>1</v>
@@ -826,46 +920,46 @@
         <v>0</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>67</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>17</v>
+      <c r="K4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N4" s="1" t="b">
         <v>0</v>
@@ -873,261 +967,555 @@
       <c r="O4" s="1">
         <v>1</v>
       </c>
-      <c r="P4" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E71CACA-69F3-4F39-A31C-75A76265BE0D}">
-  <dimension ref="A1:L17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K1:L17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="4">
+        <v>2</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
         <v>41</v>
       </c>
-      <c r="L3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" t="s">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>42</v>
       </c>
-      <c r="L4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="B9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="B10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>44</v>
       </c>
-      <c r="L7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="B13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
         <v>45</v>
       </c>
-      <c r="L8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="4">
         <v>2</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" t="s">
-        <v>3</v>
-      </c>
-      <c r="L11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" t="s">
-        <v>5</v>
-      </c>
-      <c r="L13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="J15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" t="s">
-        <v>50</v>
-      </c>
-      <c r="L14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="N15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" t="s">
         <v>51</v>
       </c>
-      <c r="L15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" t="s">
-        <v>53</v>
-      </c>
-      <c r="L17" t="s">
-        <v>48</v>
-      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I18" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
